--- a/results/results/20240723/raw data.xlsx
+++ b/results/results/20240723/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ying-Ju Chen\Lab\robot xarm\GitHub\my-project\results\results\20240723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38105AE-F995-4741-99EC-156DFE85E32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8B1D9-30E7-4BEE-900C-9514FAB61DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Epoch 1/100</t>
   </si>
@@ -324,307 +324,314 @@
     <t>Epoch 99/100</t>
   </si>
   <si>
+    <t>14/14 [==============================] - 19s 406ms/step - loss: 1.0647 - dice_coef: 0.8056 - precision_1: 0.8697 - recall_1: 0.7805 - accuracy: 0.8075 - val_loss: 3.3171 - val_dice_coef: 0.4464 - val_precision_1: 0.9871 - val_recall_1: 0.3884 - val_accuracy: 0.6663 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 5s 321ms/step - loss: 0.4031 - dice_coef: 0.8729 - precision_1: 0.8866 - recall_1: 0.8793 - accuracy: 0.8686 - val_loss: 2.4913 - val_dice_coef: 0.5349 - val_precision_1: 0.9863 - val_recall_1: 0.4702 - val_accuracy: 0.7088 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 303ms/step - loss: 0.2941 - dice_coef: 0.8912 - precision_1: 0.9270 - recall_1: 0.8689 - accuracy: 0.8843 - val_loss: 1.5885 - val_dice_coef: 0.6288 - val_precision_1: 0.9816 - val_recall_1: 0.5320 - val_accuracy: 0.7400 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 313ms/step - loss: 0.2692 - dice_coef: 0.8920 - precision_1: 0.9160 - recall_1: 0.8825 - accuracy: 0.8873 - val_loss: 1.2506 - val_dice_coef: 0.6660 - val_precision_1: 0.9882 - val_recall_1: 0.5414 - val_accuracy: 0.7476 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 313ms/step - loss: 0.2241 - dice_coef: 0.9075 - precision_1: 0.9398 - recall_1: 0.8865 - accuracy: 0.9010 - val_loss: 0.7477 - val_dice_coef: 0.7563 - val_precision_1: 0.9833 - val_recall_1: 0.6408 - val_accuracy: 0.7975 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 304ms/step - loss: 0.2265 - dice_coef: 0.9079 - precision_1: 0.9255 - recall_1: 0.9025 - accuracy: 0.8990 - val_loss: 0.5246 - val_dice_coef: 0.7985 - val_precision_1: 0.9662 - val_recall_1: 0.7002 - val_accuracy: 0.8213 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 323ms/step - loss: 0.1889 - dice_coef: 0.9179 - precision_1: 0.9403 - recall_1: 0.9126 - accuracy: 0.9131 - val_loss: 0.4228 - val_dice_coef: 0.8261 - val_precision_1: 0.9536 - val_recall_1: 0.7540 - val_accuracy: 0.8427 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 316ms/step - loss: 0.1719 - dice_coef: 0.9255 - precision_1: 0.9438 - recall_1: 0.9154 - accuracy: 0.9200 - val_loss: 0.4113 - val_dice_coef: 0.8334 - val_precision_1: 0.9389 - val_recall_1: 0.7845 - val_accuracy: 0.8502 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.1514 - dice_coef: 0.9358 - precision_1: 0.9469 - recall_1: 0.9332 - accuracy: 0.9291 - val_loss: 0.3452 - val_dice_coef: 0.8434 - val_precision_1: 0.9379 - val_recall_1: 0.8017 - val_accuracy: 0.8581 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 292ms/step - loss: 0.1500 - dice_coef: 0.9379 - precision_1: 0.9593 - recall_1: 0.9248 - accuracy: 0.9299 - val_loss: 0.3787 - val_dice_coef: 0.8380 - val_precision_1: 0.9475 - val_recall_1: 0.7871 - val_accuracy: 0.8561 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.1751 - dice_coef: 0.9284 - precision_1: 0.9400 - recall_1: 0.9273 - accuracy: 0.9201 - val_loss: 0.3429 - val_dice_coef: 0.8496 - val_precision_1: 0.9251 - val_recall_1: 0.8259 - val_accuracy: 0.8632 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 312ms/step - loss: 0.1397 - dice_coef: 0.9427 - precision_1: 0.9639 - recall_1: 0.9254 - accuracy: 0.9332 - val_loss: 0.3055 - val_dice_coef: 0.8573 - val_precision_1: 0.9266 - val_recall_1: 0.8381 - val_accuracy: 0.8697 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 5s 324ms/step - loss: 0.1341 - dice_coef: 0.9441 - precision_1: 0.9533 - recall_1: 0.9420 - accuracy: 0.9355 - val_loss: 0.2863 - val_dice_coef: 0.8738 - val_precision_1: 0.9457 - val_recall_1: 0.8422 - val_accuracy: 0.8817 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 315ms/step - loss: 0.1254 - dice_coef: 0.9469 - precision_1: 0.9628 - recall_1: 0.9381 - accuracy: 0.9397 - val_loss: 0.2635 - val_dice_coef: 0.8766 - val_precision_1: 0.9391 - val_recall_1: 0.8573 - val_accuracy: 0.8851 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 297ms/step - loss: 0.1203 - dice_coef: 0.9493 - precision_1: 0.9593 - recall_1: 0.9447 - accuracy: 0.9411 - val_loss: 0.3347 - val_dice_coef: 0.8467 - val_precision_1: 0.9220 - val_recall_1: 0.8252 - val_accuracy: 0.8606 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 298ms/step - loss: 0.1113 - dice_coef: 0.9529 - precision_1: 0.9717 - recall_1: 0.9376 - accuracy: 0.9452 - val_loss: 0.2963 - val_dice_coef: 0.8669 - val_precision_1: 0.9233 - val_recall_1: 0.8570 - val_accuracy: 0.8766 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 298ms/step - loss: 0.1077 - dice_coef: 0.9547 - precision_1: 0.9664 - recall_1: 0.9487 - accuracy: 0.9455 - val_loss: 0.3024 - val_dice_coef: 0.8686 - val_precision_1: 0.9148 - val_recall_1: 0.8711 - val_accuracy: 0.8780 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 311ms/step - loss: 0.1010 - dice_coef: 0.9580 - precision_1: 0.9698 - recall_1: 0.9499 - accuracy: 0.9492 - val_loss: 0.3198 - val_dice_coef: 0.8623 - val_precision_1: 0.8820 - val_recall_1: 0.8932 - val_accuracy: 0.8678 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 308ms/step - loss: 0.0937 - dice_coef: 0.9596 - precision_1: 0.9715 - recall_1: 0.9540 - accuracy: 0.9526 - val_loss: 0.3011 - val_dice_coef: 0.8683 - val_precision_1: 0.8923 - val_recall_1: 0.8935 - val_accuracy: 0.8744 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 300ms/step - loss: 0.0890 - dice_coef: 0.9618 - precision_1: 0.9719 - recall_1: 0.9567 - accuracy: 0.9540 - val_loss: 0.3291 - val_dice_coef: 0.8557 - val_precision_1: 0.9164 - val_recall_1: 0.8501 - val_accuracy: 0.8691 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 310ms/step - loss: 0.0911 - dice_coef: 0.9623 - precision_1: 0.9724 - recall_1: 0.9562 - accuracy: 0.9536 - val_loss: 0.3562 - val_dice_coef: 0.8527 - val_precision_1: 0.9029 - val_recall_1: 0.8560 - val_accuracy: 0.8638 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 300ms/step - loss: 0.0962 - dice_coef: 0.9606 - precision_1: 0.9766 - recall_1: 0.9481 - accuracy: 0.9517 - val_loss: 0.2962 - val_dice_coef: 0.8703 - val_precision_1: 0.9180 - val_recall_1: 0.8716 - val_accuracy: 0.8798 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0998 - dice_coef: 0.9577 - precision_1: 0.9693 - recall_1: 0.9519 - accuracy: 0.9506 - val_loss: 0.2893 - val_dice_coef: 0.8713 - val_precision_1: 0.9369 - val_recall_1: 0.8597 - val_accuracy: 0.8851 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 302ms/step - loss: 0.0905 - dice_coef: 0.9608 - precision_1: 0.9666 - recall_1: 0.9625 - accuracy: 0.9537 - val_loss: 0.3694 - val_dice_coef: 0.8703 - val_precision_1: 0.9241 - val_recall_1: 0.8602 - val_accuracy: 0.8782 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 311ms/step - loss: 0.1035 - dice_coef: 0.9598 - precision_1: 0.9763 - recall_1: 0.9449 - accuracy: 0.9499 - val_loss: 0.4051 - val_dice_coef: 0.8432 - val_precision_1: 0.9275 - val_recall_1: 0.8200 - val_accuracy: 0.8617 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 302ms/step - loss: 0.0909 - dice_coef: 0.9610 - precision_1: 0.9736 - recall_1: 0.9542 - accuracy: 0.9535 - val_loss: 0.3391 - val_dice_coef: 0.8476 - val_precision_1: 0.9155 - val_recall_1: 0.8422 - val_accuracy: 0.8656 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 305ms/step - loss: 0.0774 - dice_coef: 0.9671 - precision_1: 0.9750 - recall_1: 0.9643 - accuracy: 0.9598 - val_loss: 0.3729 - val_dice_coef: 0.8505 - val_precision_1: 0.9285 - val_recall_1: 0.8343 - val_accuracy: 0.8686 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 300ms/step - loss: 0.0803 - dice_coef: 0.9662 - precision_1: 0.9740 - recall_1: 0.9617 - accuracy: 0.9577 - val_loss: 0.3706 - val_dice_coef: 0.8542 - val_precision_1: 0.9007 - val_recall_1: 0.8634 - val_accuracy: 0.8658 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.0734 - dice_coef: 0.9692 - precision_1: 0.9826 - recall_1: 0.9585 - accuracy: 0.9607 - val_loss: 0.3628 - val_dice_coef: 0.8597 - val_precision_1: 0.8877 - val_recall_1: 0.8827 - val_accuracy: 0.8668 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 305ms/step - loss: 0.0690 - dice_coef: 0.9702 - precision_1: 0.9813 - recall_1: 0.9615 - accuracy: 0.9625 - val_loss: 0.3381 - val_dice_coef: 0.8687 - val_precision_1: 0.9016 - val_recall_1: 0.8846 - val_accuracy: 0.8764 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0716 - dice_coef: 0.9709 - precision_1: 0.9748 - recall_1: 0.9727 - accuracy: 0.9612 - val_loss: 0.3804 - val_dice_coef: 0.8575 - val_precision_1: 0.8958 - val_recall_1: 0.8719 - val_accuracy: 0.8676 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 313ms/step - loss: 0.0678 - dice_coef: 0.9714 - precision_1: 0.9839 - recall_1: 0.9600 - accuracy: 0.9626 - val_loss: 0.3907 - val_dice_coef: 0.8597 - val_precision_1: 0.9286 - val_recall_1: 0.8469 - val_accuracy: 0.8744 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 307ms/step - loss: 0.0591 - dice_coef: 0.9748 - precision_1: 0.9858 - recall_1: 0.9660 - accuracy: 0.9667 - val_loss: 0.3388 - val_dice_coef: 0.8702 - val_precision_1: 0.9115 - val_recall_1: 0.8783 - val_accuracy: 0.8798 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 311ms/step - loss: 0.0593 - dice_coef: 0.9753 - precision_1: 0.9845 - recall_1: 0.9691 - accuracy: 0.9666 - val_loss: 0.3965 - val_dice_coef: 0.8583 - val_precision_1: 0.9221 - val_recall_1: 0.8497 - val_accuracy: 0.8725 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 313ms/step - loss: 0.0566 - dice_coef: 0.9757 - precision_1: 0.9846 - recall_1: 0.9691 - accuracy: 0.9676 - val_loss: 0.3802 - val_dice_coef: 0.8646 - val_precision_1: 0.9160 - val_recall_1: 0.8636 - val_accuracy: 0.8757 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 299ms/step - loss: 0.0546 - dice_coef: 0.9769 - precision_1: 0.9864 - recall_1: 0.9695 - accuracy: 0.9684 - val_loss: 0.4374 - val_dice_coef: 0.8561 - val_precision_1: 0.9127 - val_recall_1: 0.8570 - val_accuracy: 0.8700 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 308ms/step - loss: 0.0529 - dice_coef: 0.9786 - precision_1: 0.9873 - recall_1: 0.9713 - accuracy: 0.9692 - val_loss: 0.3922 - val_dice_coef: 0.8612 - val_precision_1: 0.9072 - val_recall_1: 0.8682 - val_accuracy: 0.8724 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 302ms/step - loss: 0.0515 - dice_coef: 0.9783 - precision_1: 0.9874 - recall_1: 0.9706 - accuracy: 0.9695 - val_loss: 0.3975 - val_dice_coef: 0.8685 - val_precision_1: 0.9156 - val_recall_1: 0.8730 - val_accuracy: 0.8795 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 300ms/step - loss: 0.0484 - dice_coef: 0.9794 - precision_1: 0.9884 - recall_1: 0.9715 - accuracy: 0.9709 - val_loss: 0.4159 - val_dice_coef: 0.8637 - val_precision_1: 0.9162 - val_recall_1: 0.8636 - val_accuracy: 0.8755 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 299ms/step - loss: 0.0505 - dice_coef: 0.9795 - precision_1: 0.9884 - recall_1: 0.9716 - accuracy: 0.9697 - val_loss: 0.4105 - val_dice_coef: 0.8711 - val_precision_1: 0.9170 - val_recall_1: 0.8759 - val_accuracy: 0.8815 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.0471 - dice_coef: 0.9793 - precision_1: 0.9869 - recall_1: 0.9757 - accuracy: 0.9712 - val_loss: 0.4680 - val_dice_coef: 0.8616 - val_precision_1: 0.9207 - val_recall_1: 0.8575 - val_accuracy: 0.8755 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 300ms/step - loss: 0.0495 - dice_coef: 0.9784 - precision_1: 0.9876 - recall_1: 0.9701 - accuracy: 0.9702 - val_loss: 0.4713 - val_dice_coef: 0.8600 - val_precision_1: 0.9189 - val_recall_1: 0.8565 - val_accuracy: 0.8737 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 311ms/step - loss: 0.0521 - dice_coef: 0.9781 - precision_1: 0.9868 - recall_1: 0.9725 - accuracy: 0.9691 - val_loss: 0.5423 - val_dice_coef: 0.8550 - val_precision_1: 0.9331 - val_recall_1: 0.8371 - val_accuracy: 0.8723 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0505 - dice_coef: 0.9783 - precision_1: 0.9905 - recall_1: 0.9655 - accuracy: 0.9698 - val_loss: 0.4760 - val_dice_coef: 0.8672 - val_precision_1: 0.9165 - val_recall_1: 0.8725 - val_accuracy: 0.8795 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0647 - dice_coef: 0.9743 - precision_1: 0.9826 - recall_1: 0.9692 - accuracy: 0.9649 - val_loss: 0.4954 - val_dice_coef: 0.8531 - val_precision_1: 0.9096 - val_recall_1: 0.8535 - val_accuracy: 0.8673 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 304ms/step - loss: 0.0620 - dice_coef: 0.9750 - precision_1: 0.9825 - recall_1: 0.9698 - accuracy: 0.9656 - val_loss: 0.4796 - val_dice_coef: 0.8519 - val_precision_1: 0.8844 - val_recall_1: 0.8738 - val_accuracy: 0.8617 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0530 - dice_coef: 0.9780 - precision_1: 0.9864 - recall_1: 0.9706 - accuracy: 0.9689 - val_loss: 0.4732 - val_dice_coef: 0.8579 - val_precision_1: 0.9142 - val_recall_1: 0.8562 - val_accuracy: 0.8716 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 308ms/step - loss: 0.0498 - dice_coef: 0.9779 - precision_1: 0.9875 - recall_1: 0.9689 - accuracy: 0.9701 - val_loss: 0.4607 - val_dice_coef: 0.8612 - val_precision_1: 0.8911 - val_recall_1: 0.8837 - val_accuracy: 0.8696 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 310ms/step - loss: 0.0461 - dice_coef: 0.9802 - precision_1: 0.9895 - recall_1: 0.9722 - accuracy: 0.9714 - val_loss: 0.4955 - val_dice_coef: 0.8585 - val_precision_1: 0.9122 - val_recall_1: 0.8609 - val_accuracy: 0.8721 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 299ms/step - loss: 0.0452 - dice_coef: 0.9799 - precision_1: 0.9881 - recall_1: 0.9734 - accuracy: 0.9718 - val_loss: 0.4309 - val_dice_coef: 0.8686 - val_precision_1: 0.9080 - val_recall_1: 0.8801 - val_accuracy: 0.8784 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 312ms/step - loss: 0.0427 - dice_coef: 0.9815 - precision_1: 0.9903 - recall_1: 0.9737 - accuracy: 0.9731 - val_loss: 0.4734 - val_dice_coef: 0.8626 - val_precision_1: 0.9004 - val_recall_1: 0.8781 - val_accuracy: 0.8722 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.0430 - dice_coef: 0.9821 - precision_1: 0.9891 - recall_1: 0.9772 - accuracy: 0.9733 - val_loss: 0.4624 - val_dice_coef: 0.8640 - val_precision_1: 0.9169 - val_recall_1: 0.8629 - val_accuracy: 0.8759 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0450 - dice_coef: 0.9814 - precision_1: 0.9903 - recall_1: 0.9737 - accuracy: 0.9724 - val_loss: 0.5324 - val_dice_coef: 0.8583 - val_precision_1: 0.9177 - val_recall_1: 0.8566 - val_accuracy: 0.8731 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 311ms/step - loss: 0.0412 - dice_coef: 0.9816 - precision_1: 0.9923 - recall_1: 0.9713 - accuracy: 0.9738 - val_loss: 0.5447 - val_dice_coef: 0.8599 - val_precision_1: 0.9069 - val_recall_1: 0.8680 - val_accuracy: 0.8718 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 300ms/step - loss: 0.0416 - dice_coef: 0.9817 - precision_1: 0.9900 - recall_1: 0.9747 - accuracy: 0.9732 - val_loss: 0.5674 - val_dice_coef: 0.8573 - val_precision_1: 0.9102 - val_recall_1: 0.8604 - val_accuracy: 0.8709 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 316ms/step - loss: 0.0423 - dice_coef: 0.9830 - precision_1: 0.9902 - recall_1: 0.9775 - accuracy: 0.9735 - val_loss: 0.5177 - val_dice_coef: 0.8631 - val_precision_1: 0.9089 - val_recall_1: 0.8710 - val_accuracy: 0.8751 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 302ms/step - loss: 0.0409 - dice_coef: 0.9830 - precision_1: 0.9913 - recall_1: 0.9754 - accuracy: 0.9738 - val_loss: 0.5631 - val_dice_coef: 0.8567 - val_precision_1: 0.9227 - val_recall_1: 0.8485 - val_accuracy: 0.8727 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 299ms/step - loss: 0.0406 - dice_coef: 0.9824 - precision_1: 0.9913 - recall_1: 0.9732 - accuracy: 0.9734 - val_loss: 0.5455 - val_dice_coef: 0.8591 - val_precision_1: 0.9104 - val_recall_1: 0.8628 - val_accuracy: 0.8720 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0458 - dice_coef: 0.9801 - precision_1: 0.9902 - recall_1: 0.9707 - accuracy: 0.9719 - val_loss: 0.6006 - val_dice_coef: 0.8533 - val_precision_1: 0.8953 - val_recall_1: 0.8680 - val_accuracy: 0.8651 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 308ms/step - loss: 0.0468 - dice_coef: 0.9797 - precision_1: 0.9883 - recall_1: 0.9746 - accuracy: 0.9711 - val_loss: 0.6251 - val_dice_coef: 0.8488 - val_precision_1: 0.9074 - val_recall_1: 0.8512 - val_accuracy: 0.8649 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0393 - dice_coef: 0.9828 - precision_1: 0.9896 - recall_1: 0.9783 - accuracy: 0.9751 - val_loss: 0.5863 - val_dice_coef: 0.8535 - val_precision_1: 0.9064 - val_recall_1: 0.8559 - val_accuracy: 0.8670 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 312ms/step - loss: 0.0417 - dice_coef: 0.9814 - precision_1: 0.9909 - recall_1: 0.9724 - accuracy: 0.9730 - val_loss: 0.5423 - val_dice_coef: 0.8593 - val_precision_1: 0.9103 - val_recall_1: 0.8636 - val_accuracy: 0.8723 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0392 - dice_coef: 0.9836 - precision_1: 0.9934 - recall_1: 0.9721 - accuracy: 0.9743 - val_loss: 0.5597 - val_dice_coef: 0.8609 - val_precision_1: 0.9115 - val_recall_1: 0.8634 - val_accuracy: 0.8729 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0784 - dice_coef: 0.9715 - precision_1: 0.9820 - recall_1: 0.9619 - accuracy: 0.9617 - val_loss: 0.5029 - val_dice_coef: 0.8342 - val_precision_1: 0.9306 - val_recall_1: 0.8193 - val_accuracy: 0.8623 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 303ms/step - loss: 0.0760 - dice_coef: 0.9695 - precision_1: 0.9744 - recall_1: 0.9720 - accuracy: 0.9609 - val_loss: 0.4136 - val_dice_coef: 0.8485 - val_precision_1: 0.9018 - val_recall_1: 0.8744 - val_accuracy: 0.8722 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0941 - dice_coef: 0.9611 - precision_1: 0.9714 - recall_1: 0.9551 - accuracy: 0.9531 - val_loss: 0.7091 - val_dice_coef: 0.8082 - val_precision_1: 0.9332 - val_recall_1: 0.7828 - val_accuracy: 0.8449 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 315ms/step - loss: 0.0985 - dice_coef: 0.9611 - precision_1: 0.9717 - recall_1: 0.9560 - accuracy: 0.9514 - val_loss: 0.6271 - val_dice_coef: 0.8289 - val_precision_1: 0.8782 - val_recall_1: 0.8585 - val_accuracy: 0.8510 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0727 - dice_coef: 0.9716 - precision_1: 0.9845 - recall_1: 0.9574 - accuracy: 0.9624 - val_loss: 0.7118 - val_dice_coef: 0.8284 - val_precision_1: 0.8735 - val_recall_1: 0.8556 - val_accuracy: 0.8451 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0629 - dice_coef: 0.9726 - precision_1: 0.9802 - recall_1: 0.9702 - accuracy: 0.9650 - val_loss: 0.5543 - val_dice_coef: 0.8329 - val_precision_1: 0.9155 - val_recall_1: 0.8292 - val_accuracy: 0.8598 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 312ms/step - loss: 0.0571 - dice_coef: 0.9769 - precision_1: 0.9836 - recall_1: 0.9729 - accuracy: 0.9673 - val_loss: 0.6053 - val_dice_coef: 0.8192 - val_precision_1: 0.9135 - val_recall_1: 0.8189 - val_accuracy: 0.8531 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 310ms/step - loss: 0.0483 - dice_coef: 0.9799 - precision_1: 0.9924 - recall_1: 0.9665 - accuracy: 0.9709 - val_loss: 0.5198 - val_dice_coef: 0.8435 - val_precision_1: 0.9260 - val_recall_1: 0.8411 - val_accuracy: 0.8698 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 300ms/step - loss: 0.0515 - dice_coef: 0.9798 - precision_1: 0.9898 - recall_1: 0.9716 - accuracy: 0.9708 - val_loss: 0.4891 - val_dice_coef: 0.8340 - val_precision_1: 0.8960 - val_recall_1: 0.8571 - val_accuracy: 0.8613 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 305ms/step - loss: 0.0731 - dice_coef: 0.9711 - precision_1: 0.9766 - recall_1: 0.9686 - accuracy: 0.9635 - val_loss: 0.4188 - val_dice_coef: 0.8666 - val_precision_1: 0.9260 - val_recall_1: 0.8591 - val_accuracy: 0.8796 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.0744 - dice_coef: 0.9705 - precision_1: 0.9820 - recall_1: 0.9614 - accuracy: 0.9613 - val_loss: 0.5100 - val_dice_coef: 0.8487 - val_precision_1: 0.8998 - val_recall_1: 0.8651 - val_accuracy: 0.8665 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 314ms/step - loss: 0.0554 - dice_coef: 0.9766 - precision_1: 0.9886 - recall_1: 0.9671 - accuracy: 0.9691 - val_loss: 0.4764 - val_dice_coef: 0.8582 - val_precision_1: 0.9073 - val_recall_1: 0.8646 - val_accuracy: 0.8704 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 303ms/step - loss: 0.0496 - dice_coef: 0.9789 - precision_1: 0.9869 - recall_1: 0.9732 - accuracy: 0.9703 - val_loss: 0.5630 - val_dice_coef: 0.8419 - val_precision_1: 0.9316 - val_recall_1: 0.8253 - val_accuracy: 0.8667 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0426 - dice_coef: 0.9823 - precision_1: 0.9908 - recall_1: 0.9742 - accuracy: 0.9730 - val_loss: 0.5114 - val_dice_coef: 0.8454 - val_precision_1: 0.9383 - val_recall_1: 0.8245 - val_accuracy: 0.8696 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 315ms/step - loss: 0.0422 - dice_coef: 0.9827 - precision_1: 0.9915 - recall_1: 0.9744 - accuracy: 0.9734 - val_loss: 0.5411 - val_dice_coef: 0.8504 - val_precision_1: 0.9132 - val_recall_1: 0.8452 - val_accuracy: 0.8658 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 300ms/step - loss: 0.0456 - dice_coef: 0.9828 - precision_1: 0.9914 - recall_1: 0.9737 - accuracy: 0.9733 - val_loss: 0.5373 - val_dice_coef: 0.8489 - val_precision_1: 0.8924 - val_recall_1: 0.8610 - val_accuracy: 0.8610 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0471 - dice_coef: 0.9811 - precision_1: 0.9876 - recall_1: 0.9762 - accuracy: 0.9722 - val_loss: 0.5666 - val_dice_coef: 0.8375 - val_precision_1: 0.9056 - val_recall_1: 0.8358 - val_accuracy: 0.8578 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - ETA: 0s - loss: 0.0418 - dice_coef: 0.9819 - precision_1: 0.9899 - recall_1: 0.9754 - accuracy: 0.9737</t>
+  </si>
+  <si>
+    <t>Epoch 81: ReduceLROnPlateau reducing learning rate to 0.0008819999848492443.</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.0418 - dice_coef: 0.9819 - precision_1: 0.9899 - recall_1: 0.9754 - accuracy: 0.9737 - val_loss: 0.5378 - val_dice_coef: 0.8394 - val_precision_1: 0.9096 - val_recall_1: 0.8443 - val_accuracy: 0.8633 - lr: 9.0000e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.0398 - dice_coef: 0.9831 - precision_1: 0.9926 - recall_1: 0.9728 - accuracy: 0.9741 - val_loss: 0.5564 - val_dice_coef: 0.8499 - val_precision_1: 0.9153 - val_recall_1: 0.8497 - val_accuracy: 0.8686 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 303ms/step - loss: 0.0375 - dice_coef: 0.9843 - precision_1: 0.9936 - recall_1: 0.9744 - accuracy: 0.9754 - val_loss: 0.5426 - val_dice_coef: 0.8517 - val_precision_1: 0.9118 - val_recall_1: 0.8530 - val_accuracy: 0.8685 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 311ms/step - loss: 0.0362 - dice_coef: 0.9835 - precision_1: 0.9896 - recall_1: 0.9812 - accuracy: 0.9754 - val_loss: 0.5784 - val_dice_coef: 0.8475 - val_precision_1: 0.9175 - val_recall_1: 0.8389 - val_accuracy: 0.8658 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.0363 - dice_coef: 0.9841 - precision_1: 0.9928 - recall_1: 0.9750 - accuracy: 0.9752 - val_loss: 0.5636 - val_dice_coef: 0.8572 - val_precision_1: 0.9102 - val_recall_1: 0.8587 - val_accuracy: 0.8703 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 314ms/step - loss: 0.0315 - dice_coef: 0.9860 - precision_1: 0.9946 - recall_1: 0.9758 - accuracy: 0.9776 - val_loss: 0.5871 - val_dice_coef: 0.8485 - val_precision_1: 0.9174 - val_recall_1: 0.8449 - val_accuracy: 0.8680 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 303ms/step - loss: 0.0302 - dice_coef: 0.9869 - precision_1: 0.9943 - recall_1: 0.9788 - accuracy: 0.9777 - val_loss: 0.5900 - val_dice_coef: 0.8471 - val_precision_1: 0.9099 - val_recall_1: 0.8487 - val_accuracy: 0.8656 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 303ms/step - loss: 0.0305 - dice_coef: 0.9870 - precision_1: 0.9945 - recall_1: 0.9783 - accuracy: 0.9774 - val_loss: 0.6248 - val_dice_coef: 0.8465 - val_precision_1: 0.9093 - val_recall_1: 0.8447 - val_accuracy: 0.8638 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 308ms/step - loss: 0.0298 - dice_coef: 0.9873 - precision_1: 0.9947 - recall_1: 0.9797 - accuracy: 0.9780 - val_loss: 0.6236 - val_dice_coef: 0.8469 - val_precision_1: 0.9064 - val_recall_1: 0.8484 - val_accuracy: 0.8635 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0304 - dice_coef: 0.9869 - precision_1: 0.9952 - recall_1: 0.9768 - accuracy: 0.9777 - val_loss: 0.6210 - val_dice_coef: 0.8532 - val_precision_1: 0.9060 - val_recall_1: 0.8591 - val_accuracy: 0.8676 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.0314 - dice_coef: 0.9864 - precision_1: 0.9941 - recall_1: 0.9776 - accuracy: 0.9771 - val_loss: 0.6412 - val_dice_coef: 0.8486 - val_precision_1: 0.8881 - val_recall_1: 0.8650 - val_accuracy: 0.8596 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 304ms/step - loss: 0.0296 - dice_coef: 0.9870 - precision_1: 0.9942 - recall_1: 0.9788 - accuracy: 0.9777 - val_loss: 0.6534 - val_dice_coef: 0.8484 - val_precision_1: 0.8968 - val_recall_1: 0.8561 - val_accuracy: 0.8612 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.0304 - dice_coef: 0.9869 - precision_1: 0.9941 - recall_1: 0.9799 - accuracy: 0.9775 - val_loss: 0.6650 - val_dice_coef: 0.8490 - val_precision_1: 0.8977 - val_recall_1: 0.8562 - val_accuracy: 0.8620 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 309ms/step - loss: 0.0305 - dice_coef: 0.9863 - precision_1: 0.9945 - recall_1: 0.9777 - accuracy: 0.9777 - val_loss: 0.6971 - val_dice_coef: 0.8495 - val_precision_1: 0.9024 - val_recall_1: 0.8565 - val_accuracy: 0.8642 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 307ms/step - loss: 0.0290 - dice_coef: 0.9875 - precision_1: 0.9958 - recall_1: 0.9771 - accuracy: 0.9782 - val_loss: 0.6511 - val_dice_coef: 0.8545 - val_precision_1: 0.8984 - val_recall_1: 0.8658 - val_accuracy: 0.8661 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 299ms/step - loss: 0.0296 - dice_coef: 0.9872 - precision_1: 0.9951 - recall_1: 0.9783 - accuracy: 0.9780 - val_loss: 0.6598 - val_dice_coef: 0.8522 - val_precision_1: 0.8954 - val_recall_1: 0.8652 - val_accuracy: 0.8639 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 315ms/step - loss: 0.0301 - dice_coef: 0.9875 - precision_1: 0.9948 - recall_1: 0.9798 - accuracy: 0.9775 - val_loss: 0.6928 - val_dice_coef: 0.8481 - val_precision_1: 0.9057 - val_recall_1: 0.8480 - val_accuracy: 0.8629 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 302ms/step - loss: 0.0280 - dice_coef: 0.9884 - precision_1: 0.9948 - recall_1: 0.9817 - accuracy: 0.9785 - val_loss: 0.6823 - val_dice_coef: 0.8492 - val_precision_1: 0.9107 - val_recall_1: 0.8470 - val_accuracy: 0.8653 - lr: 8.8200e-04</t>
+  </si>
+  <si>
+    <t>14/14 [==============================] - 4s 302ms/step - loss: 0.0288 - dice_coef: 0.9880 - precision_1: 0.9953 - recall_1: 0.9799 - accuracy: 0.9782 - val_loss: 0.6862 - val_dice_coef: 0.8496 - val_precision_1: 0.9064 - val_recall_1: 0.8532 - val_accuracy: 0.8651 - lr: 8.8200e-04</t>
+  </si>
+  <si>
     <t>Epoch 100/100</t>
   </si>
   <si>
-    <t>14/14 [==============================] - 38s 475ms/step - loss: 1.0994 - dice_coef: 0.8018 - precision: 0.8524 - recall: 0.7785 - accuracy: 0.8014 - val_loss: 0.8573 - val_dice_coef: 0.7463 - val_precision: 0.8920 - val_recall: 0.6310 - val_accuracy: 0.8743 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 301ms/step - loss: 0.4324 - dice_coef: 0.8722 - precision: 0.8840 - recall: 0.8774 - accuracy: 0.8663 - val_loss: 0.4349 - val_dice_coef: 0.8033 - val_precision: 0.7971 - val_recall: 0.8130 - val_accuracy: 0.8832 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 278ms/step - loss: 0.3270 - dice_coef: 0.8759 - precision: 0.9119 - recall: 0.8522 - accuracy: 0.8699 - val_loss: 0.3952 - val_dice_coef: 0.7918 - val_precision: 0.7578 - val_recall: 0.8380 - val_accuracy: 0.8724 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 281ms/step - loss: 0.2785 - dice_coef: 0.8815 - precision: 0.9149 - recall: 0.8605 - accuracy: 0.8783 - val_loss: 0.3995 - val_dice_coef: 0.7903 - val_precision: 0.7296 - val_recall: 0.8728 - val_accuracy: 0.8663 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.2311 - dice_coef: 0.8964 - precision: 0.9366 - recall: 0.8698 - accuracy: 0.8915 - val_loss: 0.4354 - val_dice_coef: 0.7737 - val_precision: 0.6835 - val_recall: 0.9050 - val_accuracy: 0.8487 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 283ms/step - loss: 0.2256 - dice_coef: 0.9027 - precision: 0.9220 - recall: 0.8945 - accuracy: 0.8958 - val_loss: 0.5051 - val_dice_coef: 0.7536 - val_precision: 0.6440 - val_recall: 0.9337 - val_accuracy: 0.8279 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.2234 - dice_coef: 0.9015 - precision: 0.9192 - recall: 0.9001 - accuracy: 0.8968 - val_loss: 0.4586 - val_dice_coef: 0.7631 - val_precision: 0.6557 - val_recall: 0.9388 - val_accuracy: 0.8351 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 289ms/step - loss: 0.1943 - dice_coef: 0.9173 - precision: 0.9415 - recall: 0.9055 - accuracy: 0.9119 - val_loss: 0.7004 - val_dice_coef: 0.7126 - val_precision: 0.5822 - val_recall: 0.9589 - val_accuracy: 0.7857 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.2024 - dice_coef: 0.9134 - precision: 0.9405 - recall: 0.8987 - accuracy: 0.9052 - val_loss: 0.6954 - val_dice_coef: 0.7052 - val_precision: 0.5710 - val_recall: 0.9692 - val_accuracy: 0.7767 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 290ms/step - loss: 0.1978 - dice_coef: 0.9168 - precision: 0.9294 - recall: 0.9145 - accuracy: 0.9090 - val_loss: 0.6011 - val_dice_coef: 0.7267 - val_precision: 0.5962 - val_recall: 0.9789 - val_accuracy: 0.7962 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 294ms/step - loss: 0.1658 - dice_coef: 0.9268 - precision: 0.9468 - recall: 0.9117 - accuracy: 0.9215 - val_loss: 0.6943 - val_dice_coef: 0.7055 - val_precision: 0.5707 - val_recall: 0.9724 - val_accuracy: 0.7765 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 292ms/step - loss: 0.1498 - dice_coef: 0.9355 - precision: 0.9551 - recall: 0.9239 - accuracy: 0.9305 - val_loss: 0.5915 - val_dice_coef: 0.7325 - val_precision: 0.6040 - val_recall: 0.9758 - val_accuracy: 0.8022 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 289ms/step - loss: 0.1415 - dice_coef: 0.9388 - precision: 0.9623 - recall: 0.9229 - accuracy: 0.9318 - val_loss: 0.5322 - val_dice_coef: 0.7356 - val_precision: 0.6078 - val_recall: 0.9796 - val_accuracy: 0.8045 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.1475 - dice_coef: 0.9385 - precision: 0.9488 - recall: 0.9384 - accuracy: 0.9315 - val_loss: 0.6602 - val_dice_coef: 0.7007 - val_precision: 0.5627 - val_recall: 0.9829 - val_accuracy: 0.7695 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.1301 - dice_coef: 0.9425 - precision: 0.9627 - recall: 0.9320 - accuracy: 0.9372 - val_loss: 0.7817 - val_dice_coef: 0.6656 - val_precision: 0.5206 - val_recall: 0.9938 - val_accuracy: 0.7296 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 292ms/step - loss: 0.1293 - dice_coef: 0.9416 - precision: 0.9539 - recall: 0.9419 - accuracy: 0.9371 - val_loss: 0.8778 - val_dice_coef: 0.6570 - val_precision: 0.5107 - val_recall: 0.9885 - val_accuracy: 0.7203 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 293ms/step - loss: 0.1160 - dice_coef: 0.9513 - precision: 0.9658 - recall: 0.9422 - accuracy: 0.9423 - val_loss: 0.9239 - val_dice_coef: 0.6559 - val_precision: 0.5094 - val_recall: 0.9851 - val_accuracy: 0.7196 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 283ms/step - loss: 0.1142 - dice_coef: 0.9520 - precision: 0.9637 - recall: 0.9480 - accuracy: 0.9448 - val_loss: 1.0365 - val_dice_coef: 0.6219 - val_precision: 0.4710 - val_recall: 0.9909 - val_accuracy: 0.6759 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.1055 - dice_coef: 0.9537 - precision: 0.9663 - recall: 0.9483 - accuracy: 0.9477 - val_loss: 0.9949 - val_dice_coef: 0.6442 - val_precision: 0.4962 - val_recall: 0.9918 - val_accuracy: 0.7043 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 282ms/step - loss: 0.1058 - dice_coef: 0.9536 - precision: 0.9624 - recall: 0.9499 - accuracy: 0.9474 - val_loss: 1.2010 - val_dice_coef: 0.6108 - val_precision: 0.4595 - val_recall: 0.9988 - val_accuracy: 0.6597 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 282ms/step - loss: 0.0976 - dice_coef: 0.9580 - precision: 0.9723 - recall: 0.9480 - accuracy: 0.9508 - val_loss: 0.9347 - val_dice_coef: 0.6514 - val_precision: 0.5048 - val_recall: 0.9978 - val_accuracy: 0.7124 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.0868 - dice_coef: 0.9641 - precision: 0.9678 - recall: 0.9667 - accuracy: 0.9555 - val_loss: 1.1271 - val_dice_coef: 0.6214 - val_precision: 0.4708 - val_recall: 0.9975 - val_accuracy: 0.6741 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 283ms/step - loss: 0.0905 - dice_coef: 0.9626 - precision: 0.9749 - recall: 0.9539 - accuracy: 0.9552 - val_loss: 0.9573 - val_dice_coef: 0.6592 - val_precision: 0.5129 - val_recall: 0.9888 - val_accuracy: 0.7228 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 282ms/step - loss: 0.0924 - dice_coef: 0.9606 - precision: 0.9715 - recall: 0.9570 - accuracy: 0.9535 - val_loss: 1.0605 - val_dice_coef: 0.6401 - val_precision: 0.4911 - val_recall: 0.9923 - val_accuracy: 0.6989 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0815 - dice_coef: 0.9645 - precision: 0.9757 - recall: 0.9566 - accuracy: 0.9571 - val_loss: 0.8033 - val_dice_coef: 0.6950 - val_precision: 0.5558 - val_recall: 0.9929 - val_accuracy: 0.7623 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.0813 - dice_coef: 0.9664 - precision: 0.9772 - recall: 0.9582 - accuracy: 0.9586 - val_loss: 1.0980 - val_dice_coef: 0.6375 - val_precision: 0.4884 - val_recall: 0.9939 - val_accuracy: 0.6955 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.0778 - dice_coef: 0.9668 - precision: 0.9743 - recall: 0.9644 - accuracy: 0.9594 - val_loss: 1.2427 - val_dice_coef: 0.6235 - val_precision: 0.4728 - val_recall: 0.9919 - val_accuracy: 0.6779 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 291ms/step - loss: 0.0841 - dice_coef: 0.9641 - precision: 0.9713 - recall: 0.9604 - accuracy: 0.9563 - val_loss: 1.0003 - val_dice_coef: 0.6635 - val_precision: 0.5184 - val_recall: 0.9930 - val_accuracy: 0.7274 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0955 - dice_coef: 0.9614 - precision: 0.9725 - recall: 0.9536 - accuracy: 0.9527 - val_loss: 1.2676 - val_dice_coef: 0.6307 - val_precision: 0.4811 - val_recall: 0.9964 - val_accuracy: 0.6866 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0798 - dice_coef: 0.9660 - precision: 0.9790 - recall: 0.9563 - accuracy: 0.9585 - val_loss: 1.2406 - val_dice_coef: 0.6365 - val_precision: 0.4880 - val_recall: 0.9963 - val_accuracy: 0.6943 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.0734 - dice_coef: 0.9691 - precision: 0.9748 - recall: 0.9680 - accuracy: 0.9609 - val_loss: 1.4877 - val_dice_coef: 0.6036 - val_precision: 0.4518 - val_recall: 0.9962 - val_accuracy: 0.6503 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0646 - dice_coef: 0.9728 - precision: 0.9852 - recall: 0.9608 - accuracy: 0.9642 - val_loss: 1.2849 - val_dice_coef: 0.6299 - val_precision: 0.4805 - val_recall: 0.9963 - val_accuracy: 0.6857 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0606 - dice_coef: 0.9739 - precision: 0.9838 - recall: 0.9669 - accuracy: 0.9662 - val_loss: 1.3514 - val_dice_coef: 0.6076 - val_precision: 0.4555 - val_recall: 0.9940 - val_accuracy: 0.6559 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.0572 - dice_coef: 0.9760 - precision: 0.9850 - recall: 0.9703 - accuracy: 0.9679 - val_loss: 1.4814 - val_dice_coef: 0.5947 - val_precision: 0.4417 - val_recall: 0.9956 - val_accuracy: 0.6371 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0581 - dice_coef: 0.9753 - precision: 0.9847 - recall: 0.9687 - accuracy: 0.9675 - val_loss: 1.3915 - val_dice_coef: 0.6068 - val_precision: 0.4547 - val_recall: 0.9957 - val_accuracy: 0.6543 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 290ms/step - loss: 0.0573 - dice_coef: 0.9761 - precision: 0.9844 - recall: 0.9709 - accuracy: 0.9675 - val_loss: 1.1494 - val_dice_coef: 0.6432 - val_precision: 0.4950 - val_recall: 0.9955 - val_accuracy: 0.7024 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0534 - dice_coef: 0.9772 - precision: 0.9863 - recall: 0.9699 - accuracy: 0.9693 - val_loss: 1.0764 - val_dice_coef: 0.6483 - val_precision: 0.5006 - val_recall: 0.9948 - val_accuracy: 0.7088 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0538 - dice_coef: 0.9768 - precision: 0.9866 - recall: 0.9699 - accuracy: 0.9690 - val_loss: 1.4767 - val_dice_coef: 0.5982 - val_precision: 0.4455 - val_recall: 0.9909 - val_accuracy: 0.6434 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 289ms/step - loss: 0.0570 - dice_coef: 0.9762 - precision: 0.9831 - recall: 0.9718 - accuracy: 0.9677 - val_loss: 1.2892 - val_dice_coef: 0.6338 - val_precision: 0.4845 - val_recall: 0.9899 - val_accuracy: 0.6917 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 283ms/step - loss: 0.0657 - dice_coef: 0.9722 - precision: 0.9830 - recall: 0.9626 - accuracy: 0.9647 - val_loss: 1.6920 - val_dice_coef: 0.5815 - val_precision: 0.4278 - val_recall: 0.9925 - val_accuracy: 0.6181 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0724 - dice_coef: 0.9705 - precision: 0.9822 - recall: 0.9612 - accuracy: 0.9630 - val_loss: 1.5677 - val_dice_coef: 0.5925 - val_precision: 0.4408 - val_recall: 0.9788 - val_accuracy: 0.6388 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 290ms/step - loss: 0.0646 - dice_coef: 0.9729 - precision: 0.9804 - recall: 0.9677 - accuracy: 0.9642 - val_loss: 1.6256 - val_dice_coef: 0.5830 - val_precision: 0.4294 - val_recall: 0.9911 - val_accuracy: 0.6208 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0620 - dice_coef: 0.9746 - precision: 0.9820 - recall: 0.9706 - accuracy: 0.9658 - val_loss: 1.2094 - val_dice_coef: 0.6466 - val_precision: 0.4988 - val_recall: 0.9902 - val_accuracy: 0.7076 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0765 - dice_coef: 0.9702 - precision: 0.9791 - recall: 0.9631 - accuracy: 0.9609 - val_loss: 1.4574 - val_dice_coef: 0.6162 - val_precision: 0.4649 - val_recall: 0.9923 - val_accuracy: 0.6680 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 289ms/step - loss: 0.0758 - dice_coef: 0.9666 - precision: 0.9805 - recall: 0.9572 - accuracy: 0.9603 - val_loss: 1.3502 - val_dice_coef: 0.6279 - val_precision: 0.4783 - val_recall: 0.9955 - val_accuracy: 0.6833 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0790 - dice_coef: 0.9677 - precision: 0.9799 - recall: 0.9597 - accuracy: 0.9598 - val_loss: 2.1317 - val_dice_coef: 0.5557 - val_precision: 0.4014 - val_recall: 0.9923 - val_accuracy: 0.5772 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 289ms/step - loss: 0.0727 - dice_coef: 0.9692 - precision: 0.9768 - recall: 0.9649 - accuracy: 0.9617 - val_loss: 1.0041 - val_dice_coef: 0.6752 - val_precision: 0.5332 - val_recall: 0.9930 - val_accuracy: 0.7413 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0632 - dice_coef: 0.9729 - precision: 0.9810 - recall: 0.9670 - accuracy: 0.9647 - val_loss: 1.1257 - val_dice_coef: 0.6444 - val_precision: 0.5011 - val_recall: 0.9660 - val_accuracy: 0.7114 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0561 - dice_coef: 0.9768 - precision: 0.9864 - recall: 0.9690 - accuracy: 0.9679 - val_loss: 1.2210 - val_dice_coef: 0.6290 - val_precision: 0.4794 - val_recall: 0.9876 - val_accuracy: 0.6862 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0522 - dice_coef: 0.9772 - precision: 0.9881 - recall: 0.9668 - accuracy: 0.9699 - val_loss: 1.4162 - val_dice_coef: 0.6095 - val_precision: 0.4585 - val_recall: 0.9811 - val_accuracy: 0.6619 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.0540 - dice_coef: 0.9772 - precision: 0.9850 - recall: 0.9718 - accuracy: 0.9691 - val_loss: 1.3124 - val_dice_coef: 0.6247 - val_precision: 0.4742 - val_recall: 0.9916 - val_accuracy: 0.6795 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0480 - dice_coef: 0.9794 - precision: 0.9863 - recall: 0.9754 - accuracy: 0.9715 - val_loss: 1.7456 - val_dice_coef: 0.5836 - val_precision: 0.4308 - val_recall: 0.9823 - val_accuracy: 0.6247 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 289ms/step - loss: 0.0519 - dice_coef: 0.9778 - precision: 0.9882 - recall: 0.9674 - accuracy: 0.9692 - val_loss: 1.2336 - val_dice_coef: 0.6414 - val_precision: 0.4953 - val_recall: 0.9754 - val_accuracy: 0.7050 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 295ms/step - loss: 0.0508 - dice_coef: 0.9790 - precision: 0.9901 - recall: 0.9669 - accuracy: 0.9695 - val_loss: 1.1121 - val_dice_coef: 0.6590 - val_precision: 0.5129 - val_recall: 0.9852 - val_accuracy: 0.7232 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0467 - dice_coef: 0.9802 - precision: 0.9877 - recall: 0.9736 - accuracy: 0.9711 - val_loss: 1.7649 - val_dice_coef: 0.5670 - val_precision: 0.4131 - val_recall: 0.9923 - val_accuracy: 0.5959 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 289ms/step - loss: 0.0440 - dice_coef: 0.9803 - precision: 0.9874 - recall: 0.9757 - accuracy: 0.9723 - val_loss: 1.5280 - val_dice_coef: 0.5960 - val_precision: 0.4431 - val_recall: 0.9918 - val_accuracy: 0.6399 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0482 - dice_coef: 0.9796 - precision: 0.9892 - recall: 0.9701 - accuracy: 0.9708 - val_loss: 1.1657 - val_dice_coef: 0.6397 - val_precision: 0.4908 - val_recall: 0.9911 - val_accuracy: 0.6987 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0479 - dice_coef: 0.9794 - precision: 0.9898 - recall: 0.9691 - accuracy: 0.9710 - val_loss: 1.4572 - val_dice_coef: 0.6065 - val_precision: 0.4545 - val_recall: 0.9945 - val_accuracy: 0.6544 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 294ms/step - loss: 0.0463 - dice_coef: 0.9809 - precision: 0.9894 - recall: 0.9725 - accuracy: 0.9717 - val_loss: 1.7895 - val_dice_coef: 0.5732 - val_precision: 0.4197 - val_recall: 0.9991 - val_accuracy: 0.6040 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0414 - dice_coef: 0.9823 - precision: 0.9869 - recall: 0.9816 - accuracy: 0.9741 - val_loss: 1.7639 - val_dice_coef: 0.5807 - val_precision: 0.4273 - val_recall: 0.9938 - val_accuracy: 0.6169 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0439 - dice_coef: 0.9813 - precision: 0.9923 - recall: 0.9703 - accuracy: 0.9722 - val_loss: 1.6356 - val_dice_coef: 0.5956 - val_precision: 0.4430 - val_recall: 0.9979 - val_accuracy: 0.6382 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0433 - dice_coef: 0.9812 - precision: 0.9909 - recall: 0.9704 - accuracy: 0.9726 - val_loss: 1.5384 - val_dice_coef: 0.5990 - val_precision: 0.4467 - val_recall: 0.9950 - val_accuracy: 0.6438 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0439 - dice_coef: 0.9823 - precision: 0.9887 - recall: 0.9779 - accuracy: 0.9724 - val_loss: 1.7868 - val_dice_coef: 0.5795 - val_precision: 0.4266 - val_recall: 0.9871 - val_accuracy: 0.6173 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0412 - dice_coef: 0.9824 - precision: 0.9907 - recall: 0.9753 - accuracy: 0.9731 - val_loss: 1.8575 - val_dice_coef: 0.5787 - val_precision: 0.4253 - val_recall: 0.9965 - val_accuracy: 0.6133 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0384 - dice_coef: 0.9836 - precision: 0.9933 - recall: 0.9731 - accuracy: 0.9745 - val_loss: 1.6752 - val_dice_coef: 0.6011 - val_precision: 0.4490 - val_recall: 0.9947 - val_accuracy: 0.6470 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0364 - dice_coef: 0.9840 - precision: 0.9915 - recall: 0.9776 - accuracy: 0.9759 - val_loss: 1.7333 - val_dice_coef: 0.6014 - val_precision: 0.4491 - val_recall: 0.9888 - val_accuracy: 0.6486 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 292ms/step - loss: 0.0423 - dice_coef: 0.9829 - precision: 0.9897 - recall: 0.9772 - accuracy: 0.9732 - val_loss: 1.3732 - val_dice_coef: 0.6282 - val_precision: 0.4791 - val_recall: 0.9820 - val_accuracy: 0.6867 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0397 - dice_coef: 0.9831 - precision: 0.9918 - recall: 0.9740 - accuracy: 0.9742 - val_loss: 1.4771 - val_dice_coef: 0.6122 - val_precision: 0.4608 - val_recall: 0.9946 - val_accuracy: 0.6624 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0404 - dice_coef: 0.9829 - precision: 0.9918 - recall: 0.9729 - accuracy: 0.9739 - val_loss: 1.4764 - val_dice_coef: 0.6305 - val_precision: 0.4807 - val_recall: 0.9907 - val_accuracy: 0.6873 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0398 - dice_coef: 0.9832 - precision: 0.9905 - recall: 0.9765 - accuracy: 0.9742 - val_loss: 1.9135 - val_dice_coef: 0.5900 - val_precision: 0.4369 - val_recall: 0.9887 - val_accuracy: 0.6321 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0384 - dice_coef: 0.9834 - precision: 0.9907 - recall: 0.9782 - accuracy: 0.9746 - val_loss: 1.9931 - val_dice_coef: 0.5767 - val_precision: 0.4232 - val_recall: 0.9953 - val_accuracy: 0.6105 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 289ms/step - loss: 0.0377 - dice_coef: 0.9840 - precision: 0.9938 - recall: 0.9721 - accuracy: 0.9748 - val_loss: 2.0316 - val_dice_coef: 0.5699 - val_precision: 0.4163 - val_recall: 0.9979 - val_accuracy: 0.5992 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0357 - dice_coef: 0.9842 - precision: 0.9920 - recall: 0.9771 - accuracy: 0.9755 - val_loss: 1.5628 - val_dice_coef: 0.6170 - val_precision: 0.4661 - val_recall: 0.9932 - val_accuracy: 0.6692 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0344 - dice_coef: 0.9846 - precision: 0.9913 - recall: 0.9807 - accuracy: 0.9759 - val_loss: 1.7023 - val_dice_coef: 0.5986 - val_precision: 0.4461 - val_recall: 0.9883 - val_accuracy: 0.6447 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 290ms/step - loss: 0.0373 - dice_coef: 0.9842 - precision: 0.9940 - recall: 0.9732 - accuracy: 0.9749 - val_loss: 1.7408 - val_dice_coef: 0.5934 - val_precision: 0.4406 - val_recall: 0.9912 - val_accuracy: 0.6364 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0366 - dice_coef: 0.9837 - precision: 0.9922 - recall: 0.9740 - accuracy: 0.9746 - val_loss: 1.6284 - val_dice_coef: 0.6002 - val_precision: 0.4477 - val_recall: 0.9925 - val_accuracy: 0.6459 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0357 - dice_coef: 0.9835 - precision: 0.9897 - recall: 0.9818 - accuracy: 0.9759 - val_loss: 1.4883 - val_dice_coef: 0.6098 - val_precision: 0.4585 - val_recall: 0.9857 - val_accuracy: 0.6612 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0375 - dice_coef: 0.9839 - precision: 0.9930 - recall: 0.9729 - accuracy: 0.9746 - val_loss: 1.6855 - val_dice_coef: 0.5980 - val_precision: 0.4455 - val_recall: 0.9923 - val_accuracy: 0.6429 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0360 - dice_coef: 0.9846 - precision: 0.9941 - recall: 0.9722 - accuracy: 0.9756 - val_loss: 1.3681 - val_dice_coef: 0.6378 - val_precision: 0.4916 - val_recall: 0.9821 - val_accuracy: 0.6996 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0383 - dice_coef: 0.9836 - precision: 0.9906 - recall: 0.9776 - accuracy: 0.9743 - val_loss: 1.5771 - val_dice_coef: 0.6128 - val_precision: 0.4614 - val_recall: 0.9961 - val_accuracy: 0.6627 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 294ms/step - loss: 0.0347 - dice_coef: 0.9846 - precision: 0.9921 - recall: 0.9789 - accuracy: 0.9762 - val_loss: 2.2648 - val_dice_coef: 0.5483 - val_precision: 0.3948 - val_recall: 0.9972 - val_accuracy: 0.5640 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0344 - dice_coef: 0.9846 - precision: 0.9936 - recall: 0.9753 - accuracy: 0.9761 - val_loss: 1.4820 - val_dice_coef: 0.6313 - val_precision: 0.4817 - val_recall: 0.9973 - val_accuracy: 0.6871 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0352 - dice_coef: 0.9852 - precision: 0.9935 - recall: 0.9757 - accuracy: 0.9760 - val_loss: 2.0586 - val_dice_coef: 0.5731 - val_precision: 0.4198 - val_recall: 0.9987 - val_accuracy: 0.6043 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 298ms/step - loss: 0.0334 - dice_coef: 0.9859 - precision: 0.9940 - recall: 0.9773 - accuracy: 0.9768 - val_loss: 1.8722 - val_dice_coef: 0.5844 - val_precision: 0.4313 - val_recall: 0.9922 - val_accuracy: 0.6231 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0309 - dice_coef: 0.9869 - precision: 0.9931 - recall: 0.9815 - accuracy: 0.9777 - val_loss: 1.8784 - val_dice_coef: 0.5829 - val_precision: 0.4300 - val_recall: 0.9947 - val_accuracy: 0.6204 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0303 - dice_coef: 0.9872 - precision: 0.9949 - recall: 0.9771 - accuracy: 0.9775 - val_loss: 1.7889 - val_dice_coef: 0.5968 - val_precision: 0.4446 - val_recall: 0.9917 - val_accuracy: 0.6416 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 290ms/step - loss: 0.0322 - dice_coef: 0.9863 - precision: 0.9941 - recall: 0.9787 - accuracy: 0.9774 - val_loss: 1.6372 - val_dice_coef: 0.6163 - val_precision: 0.4651 - val_recall: 0.9902 - val_accuracy: 0.6688 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 285ms/step - loss: 0.0314 - dice_coef: 0.9870 - precision: 0.9936 - recall: 0.9798 - accuracy: 0.9775 - val_loss: 1.9151 - val_dice_coef: 0.5914 - val_precision: 0.4410 - val_recall: 0.9737 - val_accuracy: 0.6395 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.0306 - dice_coef: 0.9862 - precision: 0.9936 - recall: 0.9779 - accuracy: 0.9776 - val_loss: 1.9747 - val_dice_coef: 0.5837 - val_precision: 0.4307 - val_recall: 0.9941 - val_accuracy: 0.6216 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.0289 - dice_coef: 0.9878 - precision: 0.9960 - recall: 0.9778 - accuracy: 0.9782 - val_loss: 1.9236 - val_dice_coef: 0.5896 - val_precision: 0.4368 - val_recall: 0.9959 - val_accuracy: 0.6300 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 287ms/step - loss: 0.0282 - dice_coef: 0.9876 - precision: 0.9939 - recall: 0.9809 - accuracy: 0.9787 - val_loss: 1.9382 - val_dice_coef: 0.6020 - val_precision: 0.4496 - val_recall: 0.9907 - val_accuracy: 0.6489 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0298 - dice_coef: 0.9871 - precision: 0.9943 - recall: 0.9799 - accuracy: 0.9779 - val_loss: 1.6889 - val_dice_coef: 0.6205 - val_precision: 0.4705 - val_recall: 0.9855 - val_accuracy: 0.6760 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 294ms/step - loss: 0.0292 - dice_coef: 0.9870 - precision: 0.9948 - recall: 0.9783 - accuracy: 0.9782 - val_loss: 1.8621 - val_dice_coef: 0.6012 - val_precision: 0.4489 - val_recall: 0.9907 - val_accuracy: 0.6477 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0302 - dice_coef: 0.9869 - precision: 0.9954 - recall: 0.9761 - accuracy: 0.9777 - val_loss: 1.8298 - val_dice_coef: 0.5982 - val_precision: 0.4460 - val_recall: 0.9964 - val_accuracy: 0.6424 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 288ms/step - loss: 0.0302 - dice_coef: 0.9864 - precision: 0.9939 - recall: 0.9779 - accuracy: 0.9776 - val_loss: 1.8846 - val_dice_coef: 0.5903 - val_precision: 0.4377 - val_recall: 0.9954 - val_accuracy: 0.6312 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 295ms/step - loss: 0.0311 - dice_coef: 0.9862 - precision: 0.9924 - recall: 0.9829 - accuracy: 0.9777 - val_loss: 1.7880 - val_dice_coef: 0.6142 - val_precision: 0.4632 - val_recall: 0.9857 - val_accuracy: 0.6672 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0328 - dice_coef: 0.9850 - precision: 0.9937 - recall: 0.9762 - accuracy: 0.9765 - val_loss: 1.7832 - val_dice_coef: 0.6170 - val_precision: 0.4659 - val_recall: 0.9891 - val_accuracy: 0.6700 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 284ms/step - loss: 0.0320 - dice_coef: 0.9858 - precision: 0.9950 - recall: 0.9741 - accuracy: 0.9768 - val_loss: 1.6999 - val_dice_coef: 0.6271 - val_precision: 0.4769 - val_recall: 0.9925 - val_accuracy: 0.6826 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 291ms/step - loss: 0.0333 - dice_coef: 0.9853 - precision: 0.9933 - recall: 0.9765 - accuracy: 0.9765 - val_loss: 1.7131 - val_dice_coef: 0.6352 - val_precision: 0.4865 - val_recall: 0.9898 - val_accuracy: 0.6939 - lr: 9.0000e-04</t>
-  </si>
-  <si>
-    <t>14/14 [==============================] - 4s 286ms/step - loss: 0.0347 - dice_coef: 0.9853 - precision: 0.9919 - recall: 0.9812 - accuracy: 0.9766 - val_loss: 1.6605 - val_dice_coef: 0.6306 - val_precision: 0.4830 - val_recall: 0.9789 - val_accuracy: 0.6910 - lr: 9.0000e-04</t>
+    <t>14/14 [==============================] - 4s 315ms/step - loss: 0.0290 - dice_coef: 0.9876 - precision_1: 0.9954 - recall_1: 0.9785 - accuracy: 0.9783 - val_loss: 0.7151 - val_dice_coef: 0.8516 - val_precision_1: 0.9068 - val_recall_1: 0.8549 - val_accuracy: 0.8663 - lr: 8.8200e-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -952,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A200"/>
+  <dimension ref="A1:A202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -967,7 +974,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -977,7 +984,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -987,7 +994,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -997,7 +1004,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -1007,7 +1014,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -1017,7 +1024,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -1027,7 +1034,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -1037,7 +1044,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1047,7 +1054,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -1057,7 +1064,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -1067,7 +1074,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -1077,7 +1084,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -1087,7 +1094,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -1097,7 +1104,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -1107,7 +1114,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
@@ -1117,7 +1124,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -1127,7 +1134,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
@@ -1137,7 +1144,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -1147,7 +1154,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
@@ -1157,7 +1164,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -1167,7 +1174,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
@@ -1177,7 +1184,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
@@ -1187,7 +1194,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
@@ -1197,7 +1204,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -1207,7 +1214,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
@@ -1217,7 +1224,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
@@ -1227,7 +1234,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
@@ -1237,7 +1244,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
@@ -1247,7 +1254,7 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
@@ -1257,7 +1264,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
@@ -1267,7 +1274,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
@@ -1277,7 +1284,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
@@ -1287,7 +1294,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
@@ -1297,7 +1304,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -1307,7 +1314,7 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
@@ -1317,7 +1324,7 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
@@ -1327,7 +1334,7 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
@@ -1337,7 +1344,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
@@ -1347,7 +1354,7 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -1357,7 +1364,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
@@ -1367,7 +1374,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
@@ -1377,7 +1384,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -1387,7 +1394,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
@@ -1397,7 +1404,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
@@ -1407,7 +1414,7 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
@@ -1417,7 +1424,7 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
@@ -1427,7 +1434,7 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -1437,7 +1444,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
@@ -1447,7 +1454,7 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
@@ -1457,7 +1464,7 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
@@ -1467,7 +1474,7 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
@@ -1477,7 +1484,7 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
@@ -1487,7 +1494,7 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -1497,7 +1504,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
@@ -1507,7 +1514,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
@@ -1517,7 +1524,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
@@ -1527,7 +1534,7 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
@@ -1537,7 +1544,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
@@ -1547,7 +1554,7 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
@@ -1557,7 +1564,7 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
@@ -1567,7 +1574,7 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
@@ -1577,7 +1584,7 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
@@ -1587,7 +1594,7 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
@@ -1597,7 +1604,7 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
@@ -1607,7 +1614,7 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
@@ -1617,7 +1624,7 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
@@ -1627,7 +1634,7 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
@@ -1637,7 +1644,7 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
@@ -1647,7 +1654,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
@@ -1657,7 +1664,7 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
@@ -1667,7 +1674,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
@@ -1677,7 +1684,7 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
@@ -1687,7 +1694,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
@@ -1697,7 +1704,7 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
@@ -1707,7 +1714,7 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
@@ -1717,7 +1724,7 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
@@ -1727,7 +1734,7 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
@@ -1737,7 +1744,7 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
@@ -1747,7 +1754,7 @@
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
@@ -1757,7 +1764,7 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
@@ -1767,12 +1774,12 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
@@ -1782,7 +1789,7 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
@@ -1792,7 +1799,7 @@
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
@@ -1802,7 +1809,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
@@ -1812,7 +1819,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
@@ -1822,7 +1829,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
@@ -1832,7 +1839,7 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
@@ -1842,7 +1849,7 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
@@ -1852,7 +1859,7 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
@@ -1862,7 +1869,7 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
@@ -1872,7 +1879,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
@@ -1882,7 +1889,7 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
@@ -1892,7 +1899,7 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
@@ -1902,7 +1909,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
@@ -1912,7 +1919,7 @@
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
@@ -1922,7 +1929,7 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
@@ -1932,7 +1939,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
@@ -1942,7 +1949,7 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
@@ -1952,12 +1959,22 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
